--- a/mockup/answers.xlsx
+++ b/mockup/answers.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://surf.sharepoint.com/sites/m365-WRKGTOA-team/Gedeelde documenten/Projecten/Toetsweb/MockUp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shklinkenberg/GitHub/toetsweb/mockup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{09B1600C-D21A-9A4A-AE42-8F0759CA44F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8043288F-9348-9741-A96E-DF3B806EAC61}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88844689-FFBF-3648-B668-5F1E7F6E9BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="-19200" windowWidth="28040" windowHeight="17440" xr2:uid="{E3918505-BA42-FE4E-8C71-7290711BE4A3}"/>
+    <workbookView xWindow="-4040" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{E3918505-BA42-FE4E-8C71-7290711BE4A3}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="answerOptions" sheetId="1" r:id="rId1"/>
+    <sheet name="fase" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="87">
   <si>
     <t>entiteit.id</t>
   </si>
@@ -263,6 +264,39 @@
   </si>
   <si>
     <t>Toetsbekwaamheid</t>
+  </si>
+  <si>
+    <t>Activiteit-georiënteerde fase</t>
+  </si>
+  <si>
+    <t>Proces-georiënteerde fase</t>
+  </si>
+  <si>
+    <t>Systeem-georiënteerde fase</t>
+  </si>
+  <si>
+    <t>Keten-georiënteerde fase</t>
+  </si>
+  <si>
+    <t>kwaliteitscriteriaScore</t>
+  </si>
+  <si>
+    <t>ontwerpScore</t>
+  </si>
+  <si>
+    <t>borgingScore</t>
+  </si>
+  <si>
+    <t>faseSelectId</t>
+  </si>
+  <si>
+    <t>faseId</t>
+  </si>
+  <si>
+    <t>faseNaam</t>
+  </si>
+  <si>
+    <t>faseBeschrijving</t>
   </si>
 </sst>
 </file>
@@ -616,8 +650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F34DC85-FA6C-EF45-B4E2-5DD82D3D924B}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView zoomScale="209" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2045,4 +2079,1393 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C3C063-7ABA-BB44-823D-914C57C2E060}">
+  <dimension ref="A1:G65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="27.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>_xlfn.CONCAT(A2:C2)</f>
+        <v>111</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D65" si="0">_xlfn.CONCAT(A3:C3)</f>
+        <v>112</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>211</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>113</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>131</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>221</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>311</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>123</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>124</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>133</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v>134</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v>213</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>231</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>321</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>4</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>313</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>331</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>412</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>421</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>3</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>242</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>314</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>323</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>341</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>4</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>422</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>4</v>
+      </c>
+      <c r="B46">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>431</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>234</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>3</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>324</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>3</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>414</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>423</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>3</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>432</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>4</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>441</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>244</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>4</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>424</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+      <c r="F56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>442</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>3</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>333</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>343</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>3</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>433</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>344</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>4</v>
+      </c>
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>4</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>434</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>443</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>4</v>
+      </c>
+      <c r="B65">
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" si="0"/>
+        <v>444</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mockup/answers.xlsx
+++ b/mockup/answers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shklinkenberg/GitHub/toetsweb/mockup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88844689-FFBF-3648-B668-5F1E7F6E9BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5574DFD-3A8B-2940-A29D-E37277F0B12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4040" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{E3918505-BA42-FE4E-8C71-7290711BE4A3}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" activeTab="1" xr2:uid="{E3918505-BA42-FE4E-8C71-7290711BE4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="answerOptions" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
   <si>
     <t>entiteit.id</t>
   </si>
@@ -296,7 +296,19 @@
     <t>faseNaam</t>
   </si>
   <si>
-    <t>faseBeschrijving</t>
+    <t>faseFeedbackIdToetstaken</t>
+  </si>
+  <si>
+    <t>faseFeedbackIdToetsprogramma</t>
+  </si>
+  <si>
+    <t>faseFeedbackIdToetsbeleid</t>
+  </si>
+  <si>
+    <t>faseFeedbackIdToetsorganisatie</t>
+  </si>
+  <si>
+    <t>faseFeedbackIdToetsbekwaamheid</t>
   </si>
 </sst>
 </file>
@@ -2083,10 +2095,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C3C063-7ABA-BB44-823D-914C57C2E060}">
-  <dimension ref="A1:G65"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="170" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2098,7 +2110,7 @@
     <col min="7" max="7" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2120,8 +2132,20 @@
       <c r="G1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2141,8 +2165,28 @@
       <c r="F2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G2" t="str">
+        <f>_xlfn.CONCAT(1,E2)</f>
+        <v>11</v>
+      </c>
+      <c r="H2" t="str">
+        <f>_xlfn.CONCAT(2,E2)</f>
+        <v>21</v>
+      </c>
+      <c r="I2" t="str">
+        <f>_xlfn.CONCAT(3,E2)</f>
+        <v>31</v>
+      </c>
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(4,E2)</f>
+        <v>41</v>
+      </c>
+      <c r="K2" t="str">
+        <f>_xlfn.CONCAT(5,E2)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2162,8 +2206,28 @@
       <c r="F3" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G65" si="1">_xlfn.CONCAT(1,E3)</f>
+        <v>11</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H65" si="2">_xlfn.CONCAT(2,E3)</f>
+        <v>21</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I65" si="3">_xlfn.CONCAT(3,E3)</f>
+        <v>31</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J65" si="4">_xlfn.CONCAT(4,E3)</f>
+        <v>41</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K65" si="5">_xlfn.CONCAT(5,E3)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2183,8 +2247,28 @@
       <c r="F4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G4" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2204,8 +2288,28 @@
       <c r="F5" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G5" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2225,8 +2329,28 @@
       <c r="F6" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2246,8 +2370,28 @@
       <c r="F7" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G7" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2267,8 +2411,28 @@
       <c r="F8" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G8" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2288,8 +2452,28 @@
       <c r="F9" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G9" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2309,8 +2493,28 @@
       <c r="F10" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2330,8 +2534,28 @@
       <c r="F11" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2351,8 +2575,28 @@
       <c r="F12" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2372,8 +2616,28 @@
       <c r="F13" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2393,8 +2657,28 @@
       <c r="F14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G14" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2414,8 +2698,28 @@
       <c r="F15" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G15" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2435,8 +2739,28 @@
       <c r="F16" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2456,8 +2780,28 @@
       <c r="F17" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2477,8 +2821,28 @@
       <c r="F18" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2498,8 +2862,28 @@
       <c r="F19" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2519,8 +2903,28 @@
       <c r="F20" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2540,8 +2944,28 @@
       <c r="F21" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2561,8 +2985,28 @@
       <c r="F22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="str">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2582,8 +3026,28 @@
       <c r="F23" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2603,8 +3067,28 @@
       <c r="F24" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2624,8 +3108,28 @@
       <c r="F25" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -2645,8 +3149,28 @@
       <c r="F26" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2666,8 +3190,28 @@
       <c r="F27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2687,8 +3231,28 @@
       <c r="F28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2708,8 +3272,28 @@
       <c r="F29" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2729,8 +3313,28 @@
       <c r="F30" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2750,8 +3354,28 @@
       <c r="F31" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2771,8 +3395,28 @@
       <c r="F32" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2792,8 +3436,28 @@
       <c r="F33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2813,8 +3477,28 @@
       <c r="F34" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -2834,8 +3518,28 @@
       <c r="F35" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -2855,8 +3559,28 @@
       <c r="F36" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2876,8 +3600,28 @@
       <c r="F37" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2897,8 +3641,28 @@
       <c r="F38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2918,8 +3682,28 @@
       <c r="F39" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2939,8 +3723,28 @@
       <c r="F40" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2960,8 +3764,28 @@
       <c r="F41" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2981,8 +3805,28 @@
       <c r="F42" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3002,8 +3846,28 @@
       <c r="F43" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3023,8 +3887,28 @@
       <c r="F44" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3044,8 +3928,28 @@
       <c r="F45" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3065,8 +3969,28 @@
       <c r="F46" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3086,8 +4010,28 @@
       <c r="F47" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3107,8 +4051,28 @@
       <c r="F48" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -3128,8 +4092,28 @@
       <c r="F49" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -3149,8 +4133,28 @@
       <c r="F50" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -3170,8 +4174,28 @@
       <c r="F51" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -3191,8 +4215,28 @@
       <c r="F52" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -3212,8 +4256,28 @@
       <c r="F53" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -3233,8 +4297,28 @@
       <c r="F54" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3254,8 +4338,28 @@
       <c r="F55" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4</v>
       </c>
@@ -3275,8 +4379,28 @@
       <c r="F56" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
@@ -3296,8 +4420,28 @@
       <c r="F57" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="str">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -3317,8 +4461,28 @@
       <c r="F58" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3338,8 +4502,28 @@
       <c r="F59" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3359,8 +4543,28 @@
       <c r="F60" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -3380,8 +4584,28 @@
       <c r="F61" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3401,8 +4625,28 @@
       <c r="F62" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K62" t="str">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4</v>
       </c>
@@ -3422,8 +4666,28 @@
       <c r="F63" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K63" t="str">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4</v>
       </c>
@@ -3443,8 +4707,28 @@
       <c r="F64" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" t="str">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="K64" t="str">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -3463,6 +4747,26 @@
       </c>
       <c r="F65" t="s">
         <v>79</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="K65" t="str">
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/mockup/answers.xlsx
+++ b/mockup/answers.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shklinkenberg/GitHub/toetsweb/mockup/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sklinke1/GitHub/toetsweb/mockup/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5574DFD-3A8B-2940-A29D-E37277F0B12A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4368F1A8-2419-5040-B16A-88469DFC69EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="700" windowWidth="27040" windowHeight="16860" activeTab="1" xr2:uid="{E3918505-BA42-FE4E-8C71-7290711BE4A3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" activeTab="1" xr2:uid="{E3918505-BA42-FE4E-8C71-7290711BE4A3}"/>
   </bookViews>
   <sheets>
     <sheet name="answerOptions" sheetId="1" r:id="rId1"/>
     <sheet name="fase" sheetId="2" r:id="rId2"/>
+    <sheet name="faseBeschrijving" sheetId="3" r:id="rId3"/>
+    <sheet name="entiteitBeschrijving" sheetId="4" r:id="rId4"/>
+    <sheet name="elementBeschrijving" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="123">
   <si>
     <t>entiteit.id</t>
   </si>
@@ -296,29 +299,132 @@
     <t>faseNaam</t>
   </si>
   <si>
-    <t>faseFeedbackIdToetstaken</t>
-  </si>
-  <si>
-    <t>faseFeedbackIdToetsprogramma</t>
-  </si>
-  <si>
-    <t>faseFeedbackIdToetsbeleid</t>
-  </si>
-  <si>
-    <t>faseFeedbackIdToetsorganisatie</t>
-  </si>
-  <si>
-    <t>faseFeedbackIdToetsbekwaamheid</t>
+    <t>faseFeedbackPositieIdToetstaken</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieIdToetstaken</t>
+  </si>
+  <si>
+    <t>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieIdToetsprogramma</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieTektToetsprogramma</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieTekstToetstaken</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieIdToetsbeleid</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieTekstToetsbeleid</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieIdToetsorganisatie</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieTekstToetsorganisatie</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieIdToetsbekwaamheid</t>
+  </si>
+  <si>
+    <t>faseFeedbackPositieTekstToetsbekwaamheid</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieIdToetsprogramma</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieTektToetsprogramma</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieIdToetsbeleid</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieTekstToetsbeleid</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieIdToetsorganisatie</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieTekstToetsorganisatie</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieIdToetsbekwaamheid</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieTekstToetsbekwaamheid</t>
+  </si>
+  <si>
+    <t>faseFeedbackAmbitieTekstToetstaken</t>
+  </si>
+  <si>
+    <t>faseBeschrijving</t>
+  </si>
+  <si>
+    <t>entiteitId</t>
+  </si>
+  <si>
+    <t>entiteitNaam</t>
+  </si>
+  <si>
+    <t>entiteitBeschrijving</t>
+  </si>
+  <si>
+    <t>elementId</t>
+  </si>
+  <si>
+    <t>elementNaam</t>
+  </si>
+  <si>
+    <t>elementBeschrijving</t>
+  </si>
+  <si>
+    <t>Toetstaken</t>
+  </si>
+  <si>
+    <t>activiteiten-georiënteerde fase</t>
+  </si>
+  <si>
+    <t>proces-georiënteerde fase</t>
+  </si>
+  <si>
+    <t>systeem-georiënteerde fase</t>
+  </si>
+  <si>
+    <t>keten-georiënteerde fase</t>
+  </si>
+  <si>
+    <t>tekst</t>
+  </si>
+  <si>
+    <t>kwaliteitsccriteria</t>
+  </si>
+  <si>
+    <t>ontwerp</t>
+  </si>
+  <si>
+    <t>borging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,8 +450,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +770,7 @@
   <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView zoomScale="209" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2095,10 +2202,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C3C063-7ABA-BB44-823D-914C57C2E060}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="170" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="246" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2107,10 +2214,23 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
     <col min="6" max="6" width="27.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="10" width="25.83203125" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
+    <col min="15" max="15" width="22.33203125" customWidth="1"/>
+    <col min="16" max="16" width="31.5" customWidth="1"/>
+    <col min="17" max="17" width="17" customWidth="1"/>
+    <col min="19" max="19" width="20.5" customWidth="1"/>
+    <col min="21" max="21" width="16.5" customWidth="1"/>
+    <col min="23" max="23" width="21.6640625" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>80</v>
       </c>
@@ -2133,19 +2253,64 @@
         <v>86</v>
       </c>
       <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" t="s">
         <v>87</v>
       </c>
-      <c r="I1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="R1" t="s">
+        <v>106</v>
+      </c>
+      <c r="S1" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2166,27 +2331,85 @@
         <v>76</v>
       </c>
       <c r="G2" t="str">
-        <f>_xlfn.CONCAT(1,E2)</f>
-        <v>11</v>
-      </c>
-      <c r="H2" t="str">
-        <f>_xlfn.CONCAT(2,E2)</f>
-        <v>21</v>
+        <f>_xlfn.CONCAT($D2,"positie","Taken")</f>
+        <v>111positieTaken</v>
+      </c>
+      <c r="H2" t="s">
+        <v>88</v>
       </c>
       <c r="I2" t="str">
-        <f>_xlfn.CONCAT(3,E2)</f>
-        <v>31</v>
+        <f>_xlfn.CONCAT($D2,"positie","Programma")</f>
+        <v>111positieProgramma</v>
       </c>
       <c r="J2" t="str">
-        <f>_xlfn.CONCAT(4,E2)</f>
-        <v>41</v>
+        <f>$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
       </c>
       <c r="K2" t="str">
-        <f>_xlfn.CONCAT(5,E2)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <f>_xlfn.CONCAT($D2,"positie","Beleid")</f>
+        <v>111positieBeleid</v>
+      </c>
+      <c r="L2" t="str">
+        <f>$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M2" t="str">
+        <f>_xlfn.CONCAT($D2,"positie","Organisatie")</f>
+        <v>111positieOrganisatie</v>
+      </c>
+      <c r="N2" t="str">
+        <f>$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O2" t="str">
+        <f>_xlfn.CONCAT($D2,"positie","Bekwaamheid")</f>
+        <v>111positieBekwaamheid</v>
+      </c>
+      <c r="P2" t="str">
+        <f>$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>_xlfn.CONCAT($D2,"Ambitie","Taken")</f>
+        <v>111AmbitieTaken</v>
+      </c>
+      <c r="R2" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" t="str">
+        <f>_xlfn.CONCAT($D2,"Ambitie","Programma")</f>
+        <v>111AmbitieProgramma</v>
+      </c>
+      <c r="T2" t="str">
+        <f>$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U2" t="str">
+        <f>_xlfn.CONCAT($D2,"Ambitie","Beleid")</f>
+        <v>111AmbitieBeleid</v>
+      </c>
+      <c r="V2" t="str">
+        <f>$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W2" t="str">
+        <f>_xlfn.CONCAT($D2,"Ambitie","Organisatie")</f>
+        <v>111AmbitieOrganisatie</v>
+      </c>
+      <c r="X2" t="str">
+        <f>$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y2" t="str">
+        <f>_xlfn.CONCAT($D2,"Ambitie","Bekwaamheid")</f>
+        <v>111AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2207,27 +2430,85 @@
         <v>76</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G65" si="1">_xlfn.CONCAT(1,E3)</f>
-        <v>11</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H65" si="2">_xlfn.CONCAT(2,E3)</f>
-        <v>21</v>
+        <f t="shared" ref="G3:G65" si="1">_xlfn.CONCAT($D3,"positie","Taken")</f>
+        <v>112positieTaken</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I65" si="3">_xlfn.CONCAT(3,E3)</f>
-        <v>31</v>
+        <f t="shared" ref="I3:I65" si="2">_xlfn.CONCAT($D3,"positie","Programma")</f>
+        <v>112positieProgramma</v>
       </c>
       <c r="J3" t="str">
-        <f t="shared" ref="J3:J65" si="4">_xlfn.CONCAT(4,E3)</f>
-        <v>41</v>
+        <f t="shared" ref="J3:J65" si="3">$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K65" si="5">_xlfn.CONCAT(5,E3)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <f t="shared" ref="K3:K65" si="4">_xlfn.CONCAT($D3,"positie","Beleid")</f>
+        <v>112positieBeleid</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L65" si="5">$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M65" si="6">_xlfn.CONCAT($D3,"positie","Organisatie")</f>
+        <v>112positieOrganisatie</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N65" si="7">$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O65" si="8">_xlfn.CONCAT($D3,"positie","Bekwaamheid")</f>
+        <v>112positieBekwaamheid</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P65" si="9">$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q65" si="10">_xlfn.CONCAT($D3,"Ambitie","Taken")</f>
+        <v>112AmbitieTaken</v>
+      </c>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S65" si="11">_xlfn.CONCAT($D3,"Ambitie","Programma")</f>
+        <v>112AmbitieProgramma</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T65" si="12">$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U65" si="13">_xlfn.CONCAT($D3,"Ambitie","Beleid")</f>
+        <v>112AmbitieBeleid</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V65" si="14">$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W65" si="15">_xlfn.CONCAT($D3,"Ambitie","Organisatie")</f>
+        <v>112AmbitieOrganisatie</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X65" si="16">$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y3" t="str">
+        <f t="shared" ref="Y3:Y65" si="17">_xlfn.CONCAT($D3,"Ambitie","Bekwaamheid")</f>
+        <v>112AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" ref="Z3:Z65" si="18">$H$2</f>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2249,26 +2530,84 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H4" t="str">
+        <v>121positieTaken</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I4" t="str">
+        <v>121positieProgramma</v>
+      </c>
+      <c r="J4" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J4" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K4" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K4" t="str">
+        <v>121positieBeleid</v>
+      </c>
+      <c r="L4" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M4" t="str">
+        <f t="shared" si="6"/>
+        <v>121positieOrganisatie</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="8"/>
+        <v>121positieBekwaamheid</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="10"/>
+        <v>121AmbitieTaken</v>
+      </c>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" t="str">
+        <f t="shared" si="11"/>
+        <v>121AmbitieProgramma</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="13"/>
+        <v>121AmbitieBeleid</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="15"/>
+        <v>121AmbitieOrganisatie</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y4" t="str">
+        <f t="shared" si="17"/>
+        <v>121AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2290,26 +2629,84 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H5" t="str">
+        <v>211positieTaken</v>
+      </c>
+      <c r="H5" t="s">
+        <v>88</v>
+      </c>
+      <c r="I5" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I5" t="str">
+        <v>211positieProgramma</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J5" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K5" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K5" t="str">
+        <v>211positieBeleid</v>
+      </c>
+      <c r="L5" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M5" t="str">
+        <f t="shared" si="6"/>
+        <v>211positieOrganisatie</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="8"/>
+        <v>211positieBekwaamheid</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="10"/>
+        <v>211AmbitieTaken</v>
+      </c>
+      <c r="R5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S5" t="str">
+        <f t="shared" si="11"/>
+        <v>211AmbitieProgramma</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="13"/>
+        <v>211AmbitieBeleid</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="15"/>
+        <v>211AmbitieOrganisatie</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" si="17"/>
+        <v>211AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2331,26 +2728,84 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H6" t="str">
+        <v>113positieTaken</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I6" t="str">
+        <v>113positieProgramma</v>
+      </c>
+      <c r="J6" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J6" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K6" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K6" t="str">
+        <v>113positieBeleid</v>
+      </c>
+      <c r="L6" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M6" t="str">
+        <f t="shared" si="6"/>
+        <v>113positieOrganisatie</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="8"/>
+        <v>113positieBekwaamheid</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="10"/>
+        <v>113AmbitieTaken</v>
+      </c>
+      <c r="R6" t="s">
+        <v>88</v>
+      </c>
+      <c r="S6" t="str">
+        <f t="shared" si="11"/>
+        <v>113AmbitieProgramma</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="13"/>
+        <v>113AmbitieBeleid</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="15"/>
+        <v>113AmbitieOrganisatie</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="17"/>
+        <v>113AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2372,26 +2827,84 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H7" t="str">
+        <v>122positieTaken</v>
+      </c>
+      <c r="H7" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I7" t="str">
+        <v>122positieProgramma</v>
+      </c>
+      <c r="J7" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J7" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K7" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K7" t="str">
+        <v>122positieBeleid</v>
+      </c>
+      <c r="L7" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M7" t="str">
+        <f t="shared" si="6"/>
+        <v>122positieOrganisatie</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="8"/>
+        <v>122positieBekwaamheid</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="10"/>
+        <v>122AmbitieTaken</v>
+      </c>
+      <c r="R7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S7" t="str">
+        <f t="shared" si="11"/>
+        <v>122AmbitieProgramma</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="13"/>
+        <v>122AmbitieBeleid</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="15"/>
+        <v>122AmbitieOrganisatie</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="17"/>
+        <v>122AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2413,26 +2926,84 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H8" t="str">
+        <v>131positieTaken</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I8" t="str">
+        <v>131positieProgramma</v>
+      </c>
+      <c r="J8" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J8" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K8" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K8" t="str">
+        <v>131positieBeleid</v>
+      </c>
+      <c r="L8" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M8" t="str">
+        <f t="shared" si="6"/>
+        <v>131positieOrganisatie</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="8"/>
+        <v>131positieBekwaamheid</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="10"/>
+        <v>131AmbitieTaken</v>
+      </c>
+      <c r="R8" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" t="str">
+        <f t="shared" si="11"/>
+        <v>131AmbitieProgramma</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="13"/>
+        <v>131AmbitieBeleid</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="15"/>
+        <v>131AmbitieOrganisatie</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="17"/>
+        <v>131AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2454,26 +3025,84 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H9" t="str">
+        <v>212positieTaken</v>
+      </c>
+      <c r="H9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I9" t="str">
+        <v>212positieProgramma</v>
+      </c>
+      <c r="J9" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J9" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K9" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K9" t="str">
+        <v>212positieBeleid</v>
+      </c>
+      <c r="L9" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M9" t="str">
+        <f t="shared" si="6"/>
+        <v>212positieOrganisatie</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="8"/>
+        <v>212positieBekwaamheid</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="10"/>
+        <v>212AmbitieTaken</v>
+      </c>
+      <c r="R9" t="s">
+        <v>88</v>
+      </c>
+      <c r="S9" t="str">
+        <f t="shared" si="11"/>
+        <v>212AmbitieProgramma</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="13"/>
+        <v>212AmbitieBeleid</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="15"/>
+        <v>212AmbitieOrganisatie</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="17"/>
+        <v>212AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2495,26 +3124,84 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H10" t="str">
+        <v>221positieTaken</v>
+      </c>
+      <c r="H10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I10" t="str">
+        <v>221positieProgramma</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J10" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K10" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K10" t="str">
+        <v>221positieBeleid</v>
+      </c>
+      <c r="L10" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M10" t="str">
+        <f t="shared" si="6"/>
+        <v>221positieOrganisatie</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="8"/>
+        <v>221positieBekwaamheid</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="10"/>
+        <v>221AmbitieTaken</v>
+      </c>
+      <c r="R10" t="s">
+        <v>88</v>
+      </c>
+      <c r="S10" t="str">
+        <f t="shared" si="11"/>
+        <v>221AmbitieProgramma</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="13"/>
+        <v>221AmbitieBeleid</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="15"/>
+        <v>221AmbitieOrganisatie</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="17"/>
+        <v>221AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -2536,26 +3223,84 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H11" t="str">
+        <v>311positieTaken</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I11" t="str">
+        <v>311positieProgramma</v>
+      </c>
+      <c r="J11" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J11" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K11" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K11" t="str">
+        <v>311positieBeleid</v>
+      </c>
+      <c r="L11" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M11" t="str">
+        <f t="shared" si="6"/>
+        <v>311positieOrganisatie</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="8"/>
+        <v>311positieBekwaamheid</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="10"/>
+        <v>311AmbitieTaken</v>
+      </c>
+      <c r="R11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" t="str">
+        <f t="shared" si="11"/>
+        <v>311AmbitieProgramma</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="13"/>
+        <v>311AmbitieBeleid</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="15"/>
+        <v>311AmbitieOrganisatie</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="17"/>
+        <v>311AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2577,26 +3322,84 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H12" t="str">
+        <v>114positieTaken</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I12" t="str">
+        <v>114positieProgramma</v>
+      </c>
+      <c r="J12" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J12" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K12" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K12" t="str">
+        <v>114positieBeleid</v>
+      </c>
+      <c r="L12" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M12" t="str">
+        <f t="shared" si="6"/>
+        <v>114positieOrganisatie</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="8"/>
+        <v>114positieBekwaamheid</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="10"/>
+        <v>114AmbitieTaken</v>
+      </c>
+      <c r="R12" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" t="str">
+        <f t="shared" si="11"/>
+        <v>114AmbitieProgramma</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="13"/>
+        <v>114AmbitieBeleid</v>
+      </c>
+      <c r="V12" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="15"/>
+        <v>114AmbitieOrganisatie</v>
+      </c>
+      <c r="X12" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="17"/>
+        <v>114AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2618,26 +3421,84 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H13" t="str">
+        <v>123positieTaken</v>
+      </c>
+      <c r="H13" t="s">
+        <v>88</v>
+      </c>
+      <c r="I13" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I13" t="str">
+        <v>123positieProgramma</v>
+      </c>
+      <c r="J13" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J13" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K13" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K13" t="str">
+        <v>123positieBeleid</v>
+      </c>
+      <c r="L13" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M13" t="str">
+        <f t="shared" si="6"/>
+        <v>123positieOrganisatie</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="8"/>
+        <v>123positieBekwaamheid</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="10"/>
+        <v>123AmbitieTaken</v>
+      </c>
+      <c r="R13" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="shared" si="11"/>
+        <v>123AmbitieProgramma</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="13"/>
+        <v>123AmbitieBeleid</v>
+      </c>
+      <c r="V13" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="15"/>
+        <v>123AmbitieOrganisatie</v>
+      </c>
+      <c r="X13" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="17"/>
+        <v>123AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2659,26 +3520,84 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H14" t="str">
+        <v>132positieTaken</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I14" t="str">
+        <v>132positieProgramma</v>
+      </c>
+      <c r="J14" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J14" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K14" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K14" t="str">
+        <v>132positieBeleid</v>
+      </c>
+      <c r="L14" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M14" t="str">
+        <f t="shared" si="6"/>
+        <v>132positieOrganisatie</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="8"/>
+        <v>132positieBekwaamheid</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="10"/>
+        <v>132AmbitieTaken</v>
+      </c>
+      <c r="R14" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" t="str">
+        <f t="shared" si="11"/>
+        <v>132AmbitieProgramma</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="13"/>
+        <v>132AmbitieBeleid</v>
+      </c>
+      <c r="V14" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="15"/>
+        <v>132AmbitieOrganisatie</v>
+      </c>
+      <c r="X14" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="17"/>
+        <v>132AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -2700,26 +3619,84 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H15" t="str">
+        <v>141positieTaken</v>
+      </c>
+      <c r="H15" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I15" t="str">
+        <v>141positieProgramma</v>
+      </c>
+      <c r="J15" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J15" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K15" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K15" t="str">
+        <v>141positieBeleid</v>
+      </c>
+      <c r="L15" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M15" t="str">
+        <f t="shared" si="6"/>
+        <v>141positieOrganisatie</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="8"/>
+        <v>141positieBekwaamheid</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="10"/>
+        <v>141AmbitieTaken</v>
+      </c>
+      <c r="R15" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" t="str">
+        <f t="shared" si="11"/>
+        <v>141AmbitieProgramma</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="13"/>
+        <v>141AmbitieBeleid</v>
+      </c>
+      <c r="V15" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="15"/>
+        <v>141AmbitieOrganisatie</v>
+      </c>
+      <c r="X15" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="17"/>
+        <v>141AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2741,26 +3718,84 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H16" t="str">
+        <v>411positieTaken</v>
+      </c>
+      <c r="H16" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I16" t="str">
+        <v>411positieProgramma</v>
+      </c>
+      <c r="J16" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J16" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K16" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K16" t="str">
+        <v>411positieBeleid</v>
+      </c>
+      <c r="L16" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M16" t="str">
+        <f t="shared" si="6"/>
+        <v>411positieOrganisatie</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="8"/>
+        <v>411positieBekwaamheid</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="10"/>
+        <v>411AmbitieTaken</v>
+      </c>
+      <c r="R16" t="s">
+        <v>88</v>
+      </c>
+      <c r="S16" t="str">
+        <f t="shared" si="11"/>
+        <v>411AmbitieProgramma</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="13"/>
+        <v>411AmbitieBeleid</v>
+      </c>
+      <c r="V16" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="15"/>
+        <v>411AmbitieOrganisatie</v>
+      </c>
+      <c r="X16" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="17"/>
+        <v>411AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2782,26 +3817,84 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H17" t="str">
+        <v>124positieTaken</v>
+      </c>
+      <c r="H17" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I17" t="str">
+        <v>124positieProgramma</v>
+      </c>
+      <c r="J17" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J17" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K17" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K17" t="str">
+        <v>124positieBeleid</v>
+      </c>
+      <c r="L17" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M17" t="str">
+        <f t="shared" si="6"/>
+        <v>124positieOrganisatie</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="8"/>
+        <v>124positieBekwaamheid</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="10"/>
+        <v>124AmbitieTaken</v>
+      </c>
+      <c r="R17" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" t="str">
+        <f t="shared" si="11"/>
+        <v>124AmbitieProgramma</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="13"/>
+        <v>124AmbitieBeleid</v>
+      </c>
+      <c r="V17" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="15"/>
+        <v>124AmbitieOrganisatie</v>
+      </c>
+      <c r="X17" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="17"/>
+        <v>124AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -2823,26 +3916,84 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H18" t="str">
+        <v>133positieTaken</v>
+      </c>
+      <c r="H18" t="s">
+        <v>88</v>
+      </c>
+      <c r="I18" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I18" t="str">
+        <v>133positieProgramma</v>
+      </c>
+      <c r="J18" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J18" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K18" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K18" t="str">
+        <v>133positieBeleid</v>
+      </c>
+      <c r="L18" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M18" t="str">
+        <f t="shared" si="6"/>
+        <v>133positieOrganisatie</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="8"/>
+        <v>133positieBekwaamheid</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="10"/>
+        <v>133AmbitieTaken</v>
+      </c>
+      <c r="R18" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" t="str">
+        <f t="shared" si="11"/>
+        <v>133AmbitieProgramma</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="13"/>
+        <v>133AmbitieBeleid</v>
+      </c>
+      <c r="V18" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="15"/>
+        <v>133AmbitieOrganisatie</v>
+      </c>
+      <c r="X18" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="17"/>
+        <v>133AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -2864,26 +4015,84 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H19" t="str">
+        <v>142positieTaken</v>
+      </c>
+      <c r="H19" t="s">
+        <v>88</v>
+      </c>
+      <c r="I19" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I19" t="str">
+        <v>142positieProgramma</v>
+      </c>
+      <c r="J19" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J19" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K19" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K19" t="str">
+        <v>142positieBeleid</v>
+      </c>
+      <c r="L19" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M19" t="str">
+        <f t="shared" si="6"/>
+        <v>142positieOrganisatie</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="8"/>
+        <v>142positieBekwaamheid</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="10"/>
+        <v>142AmbitieTaken</v>
+      </c>
+      <c r="R19" t="s">
+        <v>88</v>
+      </c>
+      <c r="S19" t="str">
+        <f t="shared" si="11"/>
+        <v>142AmbitieProgramma</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="13"/>
+        <v>142AmbitieBeleid</v>
+      </c>
+      <c r="V19" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="15"/>
+        <v>142AmbitieOrganisatie</v>
+      </c>
+      <c r="X19" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y19" t="str">
+        <f t="shared" si="17"/>
+        <v>142AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -2905,26 +4114,84 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H20" t="str">
+        <v>134positieTaken</v>
+      </c>
+      <c r="H20" t="s">
+        <v>88</v>
+      </c>
+      <c r="I20" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I20" t="str">
+        <v>134positieProgramma</v>
+      </c>
+      <c r="J20" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J20" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K20" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K20" t="str">
+        <v>134positieBeleid</v>
+      </c>
+      <c r="L20" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M20" t="str">
+        <f t="shared" si="6"/>
+        <v>134positieOrganisatie</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="8"/>
+        <v>134positieBekwaamheid</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="10"/>
+        <v>134AmbitieTaken</v>
+      </c>
+      <c r="R20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S20" t="str">
+        <f t="shared" si="11"/>
+        <v>134AmbitieProgramma</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="13"/>
+        <v>134AmbitieBeleid</v>
+      </c>
+      <c r="V20" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="15"/>
+        <v>134AmbitieOrganisatie</v>
+      </c>
+      <c r="X20" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y20" t="str">
+        <f t="shared" si="17"/>
+        <v>134AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1</v>
       </c>
@@ -2946,26 +4213,84 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H21" t="str">
+        <v>143positieTaken</v>
+      </c>
+      <c r="H21" t="s">
+        <v>88</v>
+      </c>
+      <c r="I21" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I21" t="str">
+        <v>143positieProgramma</v>
+      </c>
+      <c r="J21" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J21" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K21" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K21" t="str">
+        <v>143positieBeleid</v>
+      </c>
+      <c r="L21" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M21" t="str">
+        <f t="shared" si="6"/>
+        <v>143positieOrganisatie</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="8"/>
+        <v>143positieBekwaamheid</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="10"/>
+        <v>143AmbitieTaken</v>
+      </c>
+      <c r="R21" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" t="str">
+        <f t="shared" si="11"/>
+        <v>143AmbitieProgramma</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="13"/>
+        <v>143AmbitieBeleid</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="15"/>
+        <v>143AmbitieOrganisatie</v>
+      </c>
+      <c r="X21" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y21" t="str">
+        <f t="shared" si="17"/>
+        <v>143AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -2987,26 +4312,84 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="H22" t="str">
+        <v>144positieTaken</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
+      </c>
+      <c r="I22" t="str">
         <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="I22" t="str">
+        <v>144positieProgramma</v>
+      </c>
+      <c r="J22" t="str">
         <f t="shared" si="3"/>
-        <v>31</v>
-      </c>
-      <c r="J22" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K22" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
-      </c>
-      <c r="K22" t="str">
+        <v>144positieBeleid</v>
+      </c>
+      <c r="L22" t="str">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M22" t="str">
+        <f t="shared" si="6"/>
+        <v>144positieOrganisatie</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="8"/>
+        <v>144positieBekwaamheid</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="10"/>
+        <v>144AmbitieTaken</v>
+      </c>
+      <c r="R22" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" t="str">
+        <f t="shared" si="11"/>
+        <v>144AmbitieProgramma</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="13"/>
+        <v>144AmbitieBeleid</v>
+      </c>
+      <c r="V22" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="15"/>
+        <v>144AmbitieOrganisatie</v>
+      </c>
+      <c r="X22" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y22" t="str">
+        <f t="shared" si="17"/>
+        <v>144AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -3028,26 +4411,84 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H23" t="str">
+        <v>213positieTaken</v>
+      </c>
+      <c r="H23" t="s">
+        <v>88</v>
+      </c>
+      <c r="I23" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I23" t="str">
+        <v>213positieProgramma</v>
+      </c>
+      <c r="J23" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J23" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K23" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K23" t="str">
+        <v>213positieBeleid</v>
+      </c>
+      <c r="L23" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M23" t="str">
+        <f t="shared" si="6"/>
+        <v>213positieOrganisatie</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="8"/>
+        <v>213positieBekwaamheid</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="10"/>
+        <v>213AmbitieTaken</v>
+      </c>
+      <c r="R23" t="s">
+        <v>88</v>
+      </c>
+      <c r="S23" t="str">
+        <f t="shared" si="11"/>
+        <v>213AmbitieProgramma</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="13"/>
+        <v>213AmbitieBeleid</v>
+      </c>
+      <c r="V23" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="15"/>
+        <v>213AmbitieOrganisatie</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y23" t="str">
+        <f t="shared" si="17"/>
+        <v>213AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2</v>
       </c>
@@ -3069,26 +4510,84 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H24" t="str">
+        <v>222positieTaken</v>
+      </c>
+      <c r="H24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I24" t="str">
+        <v>222positieProgramma</v>
+      </c>
+      <c r="J24" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J24" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K24" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K24" t="str">
+        <v>222positieBeleid</v>
+      </c>
+      <c r="L24" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M24" t="str">
+        <f t="shared" si="6"/>
+        <v>222positieOrganisatie</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="8"/>
+        <v>222positieBekwaamheid</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="10"/>
+        <v>222AmbitieTaken</v>
+      </c>
+      <c r="R24" t="s">
+        <v>88</v>
+      </c>
+      <c r="S24" t="str">
+        <f t="shared" si="11"/>
+        <v>222AmbitieProgramma</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="13"/>
+        <v>222AmbitieBeleid</v>
+      </c>
+      <c r="V24" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="15"/>
+        <v>222AmbitieOrganisatie</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y24" t="str">
+        <f t="shared" si="17"/>
+        <v>222AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -3110,26 +4609,84 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H25" t="str">
+        <v>231positieTaken</v>
+      </c>
+      <c r="H25" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I25" t="str">
+        <v>231positieProgramma</v>
+      </c>
+      <c r="J25" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J25" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K25" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K25" t="str">
+        <v>231positieBeleid</v>
+      </c>
+      <c r="L25" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M25" t="str">
+        <f t="shared" si="6"/>
+        <v>231positieOrganisatie</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="8"/>
+        <v>231positieBekwaamheid</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="10"/>
+        <v>231AmbitieTaken</v>
+      </c>
+      <c r="R25" t="s">
+        <v>88</v>
+      </c>
+      <c r="S25" t="str">
+        <f t="shared" si="11"/>
+        <v>231AmbitieProgramma</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="13"/>
+        <v>231AmbitieBeleid</v>
+      </c>
+      <c r="V25" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="15"/>
+        <v>231AmbitieOrganisatie</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y25" t="str">
+        <f t="shared" si="17"/>
+        <v>231AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -3151,26 +4708,84 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H26" t="str">
+        <v>312positieTaken</v>
+      </c>
+      <c r="H26" t="s">
+        <v>88</v>
+      </c>
+      <c r="I26" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I26" t="str">
+        <v>312positieProgramma</v>
+      </c>
+      <c r="J26" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J26" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K26" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K26" t="str">
+        <v>312positieBeleid</v>
+      </c>
+      <c r="L26" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M26" t="str">
+        <f t="shared" si="6"/>
+        <v>312positieOrganisatie</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="8"/>
+        <v>312positieBekwaamheid</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="10"/>
+        <v>312AmbitieTaken</v>
+      </c>
+      <c r="R26" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" t="str">
+        <f t="shared" si="11"/>
+        <v>312AmbitieProgramma</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="13"/>
+        <v>312AmbitieBeleid</v>
+      </c>
+      <c r="V26" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="15"/>
+        <v>312AmbitieOrganisatie</v>
+      </c>
+      <c r="X26" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y26" t="str">
+        <f t="shared" si="17"/>
+        <v>312AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>3</v>
       </c>
@@ -3192,26 +4807,84 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H27" t="str">
+        <v>321positieTaken</v>
+      </c>
+      <c r="H27" t="s">
+        <v>88</v>
+      </c>
+      <c r="I27" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I27" t="str">
+        <v>321positieProgramma</v>
+      </c>
+      <c r="J27" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J27" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K27" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K27" t="str">
+        <v>321positieBeleid</v>
+      </c>
+      <c r="L27" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M27" t="str">
+        <f t="shared" si="6"/>
+        <v>321positieOrganisatie</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="8"/>
+        <v>321positieBekwaamheid</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="10"/>
+        <v>321AmbitieTaken</v>
+      </c>
+      <c r="R27" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" t="str">
+        <f t="shared" si="11"/>
+        <v>321AmbitieProgramma</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="13"/>
+        <v>321AmbitieBeleid</v>
+      </c>
+      <c r="V27" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="15"/>
+        <v>321AmbitieOrganisatie</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y27" t="str">
+        <f t="shared" si="17"/>
+        <v>321AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2</v>
       </c>
@@ -3233,26 +4906,84 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H28" t="str">
+        <v>214positieTaken</v>
+      </c>
+      <c r="H28" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I28" t="str">
+        <v>214positieProgramma</v>
+      </c>
+      <c r="J28" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J28" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K28" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K28" t="str">
+        <v>214positieBeleid</v>
+      </c>
+      <c r="L28" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M28" t="str">
+        <f t="shared" si="6"/>
+        <v>214positieOrganisatie</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="8"/>
+        <v>214positieBekwaamheid</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="10"/>
+        <v>214AmbitieTaken</v>
+      </c>
+      <c r="R28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S28" t="str">
+        <f t="shared" si="11"/>
+        <v>214AmbitieProgramma</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="13"/>
+        <v>214AmbitieBeleid</v>
+      </c>
+      <c r="V28" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="15"/>
+        <v>214AmbitieOrganisatie</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y28" t="str">
+        <f t="shared" si="17"/>
+        <v>214AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2</v>
       </c>
@@ -3274,26 +5005,84 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H29" t="str">
+        <v>223positieTaken</v>
+      </c>
+      <c r="H29" t="s">
+        <v>88</v>
+      </c>
+      <c r="I29" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I29" t="str">
+        <v>223positieProgramma</v>
+      </c>
+      <c r="J29" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J29" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K29" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K29" t="str">
+        <v>223positieBeleid</v>
+      </c>
+      <c r="L29" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M29" t="str">
+        <f t="shared" si="6"/>
+        <v>223positieOrganisatie</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="8"/>
+        <v>223positieBekwaamheid</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="10"/>
+        <v>223AmbitieTaken</v>
+      </c>
+      <c r="R29" t="s">
+        <v>88</v>
+      </c>
+      <c r="S29" t="str">
+        <f t="shared" si="11"/>
+        <v>223AmbitieProgramma</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="13"/>
+        <v>223AmbitieBeleid</v>
+      </c>
+      <c r="V29" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="15"/>
+        <v>223AmbitieOrganisatie</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y29" t="str">
+        <f t="shared" si="17"/>
+        <v>223AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -3315,26 +5104,84 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H30" t="str">
+        <v>232positieTaken</v>
+      </c>
+      <c r="H30" t="s">
+        <v>88</v>
+      </c>
+      <c r="I30" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I30" t="str">
+        <v>232positieProgramma</v>
+      </c>
+      <c r="J30" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J30" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K30" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K30" t="str">
+        <v>232positieBeleid</v>
+      </c>
+      <c r="L30" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M30" t="str">
+        <f t="shared" si="6"/>
+        <v>232positieOrganisatie</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="8"/>
+        <v>232positieBekwaamheid</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="10"/>
+        <v>232AmbitieTaken</v>
+      </c>
+      <c r="R30" t="s">
+        <v>88</v>
+      </c>
+      <c r="S30" t="str">
+        <f t="shared" si="11"/>
+        <v>232AmbitieProgramma</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="13"/>
+        <v>232AmbitieBeleid</v>
+      </c>
+      <c r="V30" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="15"/>
+        <v>232AmbitieOrganisatie</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y30" t="str">
+        <f t="shared" si="17"/>
+        <v>232AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -3356,26 +5203,84 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H31" t="str">
+        <v>241positieTaken</v>
+      </c>
+      <c r="H31" t="s">
+        <v>88</v>
+      </c>
+      <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I31" t="str">
+        <v>241positieProgramma</v>
+      </c>
+      <c r="J31" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J31" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K31" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K31" t="str">
+        <v>241positieBeleid</v>
+      </c>
+      <c r="L31" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M31" t="str">
+        <f t="shared" si="6"/>
+        <v>241positieOrganisatie</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="8"/>
+        <v>241positieBekwaamheid</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="10"/>
+        <v>241AmbitieTaken</v>
+      </c>
+      <c r="R31" t="s">
+        <v>88</v>
+      </c>
+      <c r="S31" t="str">
+        <f t="shared" si="11"/>
+        <v>241AmbitieProgramma</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="13"/>
+        <v>241AmbitieBeleid</v>
+      </c>
+      <c r="V31" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="15"/>
+        <v>241AmbitieOrganisatie</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y31" t="str">
+        <f t="shared" si="17"/>
+        <v>241AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -3397,26 +5302,84 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H32" t="str">
+        <v>313positieTaken</v>
+      </c>
+      <c r="H32" t="s">
+        <v>88</v>
+      </c>
+      <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I32" t="str">
+        <v>313positieProgramma</v>
+      </c>
+      <c r="J32" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J32" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K32" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K32" t="str">
+        <v>313positieBeleid</v>
+      </c>
+      <c r="L32" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M32" t="str">
+        <f t="shared" si="6"/>
+        <v>313positieOrganisatie</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="8"/>
+        <v>313positieBekwaamheid</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="10"/>
+        <v>313AmbitieTaken</v>
+      </c>
+      <c r="R32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S32" t="str">
+        <f t="shared" si="11"/>
+        <v>313AmbitieProgramma</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="13"/>
+        <v>313AmbitieBeleid</v>
+      </c>
+      <c r="V32" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="15"/>
+        <v>313AmbitieOrganisatie</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y32" t="str">
+        <f t="shared" si="17"/>
+        <v>313AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -3438,26 +5401,84 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H33" t="str">
+        <v>322positieTaken</v>
+      </c>
+      <c r="H33" t="s">
+        <v>88</v>
+      </c>
+      <c r="I33" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I33" t="str">
+        <v>322positieProgramma</v>
+      </c>
+      <c r="J33" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J33" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K33" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K33" t="str">
+        <v>322positieBeleid</v>
+      </c>
+      <c r="L33" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M33" t="str">
+        <f t="shared" si="6"/>
+        <v>322positieOrganisatie</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="8"/>
+        <v>322positieBekwaamheid</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="10"/>
+        <v>322AmbitieTaken</v>
+      </c>
+      <c r="R33" t="s">
+        <v>88</v>
+      </c>
+      <c r="S33" t="str">
+        <f t="shared" si="11"/>
+        <v>322AmbitieProgramma</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="13"/>
+        <v>322AmbitieBeleid</v>
+      </c>
+      <c r="V33" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="15"/>
+        <v>322AmbitieOrganisatie</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y33" t="str">
+        <f t="shared" si="17"/>
+        <v>322AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -3479,26 +5500,84 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H34" t="str">
+        <v>331positieTaken</v>
+      </c>
+      <c r="H34" t="s">
+        <v>88</v>
+      </c>
+      <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I34" t="str">
+        <v>331positieProgramma</v>
+      </c>
+      <c r="J34" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J34" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K34" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K34" t="str">
+        <v>331positieBeleid</v>
+      </c>
+      <c r="L34" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M34" t="str">
+        <f t="shared" si="6"/>
+        <v>331positieOrganisatie</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="8"/>
+        <v>331positieBekwaamheid</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="10"/>
+        <v>331AmbitieTaken</v>
+      </c>
+      <c r="R34" t="s">
+        <v>88</v>
+      </c>
+      <c r="S34" t="str">
+        <f t="shared" si="11"/>
+        <v>331AmbitieProgramma</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="13"/>
+        <v>331AmbitieBeleid</v>
+      </c>
+      <c r="V34" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="15"/>
+        <v>331AmbitieOrganisatie</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y34" t="str">
+        <f t="shared" si="17"/>
+        <v>331AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>4</v>
       </c>
@@ -3520,26 +5599,84 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H35" t="str">
+        <v>412positieTaken</v>
+      </c>
+      <c r="H35" t="s">
+        <v>88</v>
+      </c>
+      <c r="I35" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I35" t="str">
+        <v>412positieProgramma</v>
+      </c>
+      <c r="J35" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J35" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K35" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K35" t="str">
+        <v>412positieBeleid</v>
+      </c>
+      <c r="L35" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M35" t="str">
+        <f t="shared" si="6"/>
+        <v>412positieOrganisatie</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="8"/>
+        <v>412positieBekwaamheid</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="10"/>
+        <v>412AmbitieTaken</v>
+      </c>
+      <c r="R35" t="s">
+        <v>88</v>
+      </c>
+      <c r="S35" t="str">
+        <f t="shared" si="11"/>
+        <v>412AmbitieProgramma</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="13"/>
+        <v>412AmbitieBeleid</v>
+      </c>
+      <c r="V35" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="15"/>
+        <v>412AmbitieOrganisatie</v>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y35" t="str">
+        <f t="shared" si="17"/>
+        <v>412AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>4</v>
       </c>
@@ -3561,26 +5698,84 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H36" t="str">
+        <v>421positieTaken</v>
+      </c>
+      <c r="H36" t="s">
+        <v>88</v>
+      </c>
+      <c r="I36" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I36" t="str">
+        <v>421positieProgramma</v>
+      </c>
+      <c r="J36" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J36" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K36" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K36" t="str">
+        <v>421positieBeleid</v>
+      </c>
+      <c r="L36" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M36" t="str">
+        <f t="shared" si="6"/>
+        <v>421positieOrganisatie</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="8"/>
+        <v>421positieBekwaamheid</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="10"/>
+        <v>421AmbitieTaken</v>
+      </c>
+      <c r="R36" t="s">
+        <v>88</v>
+      </c>
+      <c r="S36" t="str">
+        <f t="shared" si="11"/>
+        <v>421AmbitieProgramma</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="13"/>
+        <v>421AmbitieBeleid</v>
+      </c>
+      <c r="V36" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="15"/>
+        <v>421AmbitieOrganisatie</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y36" t="str">
+        <f t="shared" si="17"/>
+        <v>421AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3602,26 +5797,84 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H37" t="str">
+        <v>224positieTaken</v>
+      </c>
+      <c r="H37" t="s">
+        <v>88</v>
+      </c>
+      <c r="I37" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I37" t="str">
+        <v>224positieProgramma</v>
+      </c>
+      <c r="J37" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J37" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K37" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K37" t="str">
+        <v>224positieBeleid</v>
+      </c>
+      <c r="L37" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M37" t="str">
+        <f t="shared" si="6"/>
+        <v>224positieOrganisatie</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="8"/>
+        <v>224positieBekwaamheid</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="10"/>
+        <v>224AmbitieTaken</v>
+      </c>
+      <c r="R37" t="s">
+        <v>88</v>
+      </c>
+      <c r="S37" t="str">
+        <f t="shared" si="11"/>
+        <v>224AmbitieProgramma</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="13"/>
+        <v>224AmbitieBeleid</v>
+      </c>
+      <c r="V37" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="15"/>
+        <v>224AmbitieOrganisatie</v>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y37" t="str">
+        <f t="shared" si="17"/>
+        <v>224AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -3643,26 +5896,84 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H38" t="str">
+        <v>233positieTaken</v>
+      </c>
+      <c r="H38" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I38" t="str">
+        <v>233positieProgramma</v>
+      </c>
+      <c r="J38" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J38" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K38" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K38" t="str">
+        <v>233positieBeleid</v>
+      </c>
+      <c r="L38" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M38" t="str">
+        <f t="shared" si="6"/>
+        <v>233positieOrganisatie</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="8"/>
+        <v>233positieBekwaamheid</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="10"/>
+        <v>233AmbitieTaken</v>
+      </c>
+      <c r="R38" t="s">
+        <v>88</v>
+      </c>
+      <c r="S38" t="str">
+        <f t="shared" si="11"/>
+        <v>233AmbitieProgramma</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="13"/>
+        <v>233AmbitieBeleid</v>
+      </c>
+      <c r="V38" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="15"/>
+        <v>233AmbitieOrganisatie</v>
+      </c>
+      <c r="X38" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y38" t="str">
+        <f t="shared" si="17"/>
+        <v>233AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2</v>
       </c>
@@ -3684,26 +5995,84 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H39" t="str">
+        <v>242positieTaken</v>
+      </c>
+      <c r="H39" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I39" t="str">
+        <v>242positieProgramma</v>
+      </c>
+      <c r="J39" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J39" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K39" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K39" t="str">
+        <v>242positieBeleid</v>
+      </c>
+      <c r="L39" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M39" t="str">
+        <f t="shared" si="6"/>
+        <v>242positieOrganisatie</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="8"/>
+        <v>242positieBekwaamheid</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="10"/>
+        <v>242AmbitieTaken</v>
+      </c>
+      <c r="R39" t="s">
+        <v>88</v>
+      </c>
+      <c r="S39" t="str">
+        <f t="shared" si="11"/>
+        <v>242AmbitieProgramma</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="13"/>
+        <v>242AmbitieBeleid</v>
+      </c>
+      <c r="V39" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="15"/>
+        <v>242AmbitieOrganisatie</v>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y39" t="str">
+        <f t="shared" si="17"/>
+        <v>242AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -3725,26 +6094,84 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H40" t="str">
+        <v>314positieTaken</v>
+      </c>
+      <c r="H40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I40" t="str">
+        <v>314positieProgramma</v>
+      </c>
+      <c r="J40" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J40" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K40" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K40" t="str">
+        <v>314positieBeleid</v>
+      </c>
+      <c r="L40" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M40" t="str">
+        <f t="shared" si="6"/>
+        <v>314positieOrganisatie</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="8"/>
+        <v>314positieBekwaamheid</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="10"/>
+        <v>314AmbitieTaken</v>
+      </c>
+      <c r="R40" t="s">
+        <v>88</v>
+      </c>
+      <c r="S40" t="str">
+        <f t="shared" si="11"/>
+        <v>314AmbitieProgramma</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="13"/>
+        <v>314AmbitieBeleid</v>
+      </c>
+      <c r="V40" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="15"/>
+        <v>314AmbitieOrganisatie</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y40" t="str">
+        <f t="shared" si="17"/>
+        <v>314AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3766,26 +6193,84 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H41" t="str">
+        <v>323positieTaken</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I41" t="str">
+        <v>323positieProgramma</v>
+      </c>
+      <c r="J41" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J41" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K41" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K41" t="str">
+        <v>323positieBeleid</v>
+      </c>
+      <c r="L41" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M41" t="str">
+        <f t="shared" si="6"/>
+        <v>323positieOrganisatie</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="8"/>
+        <v>323positieBekwaamheid</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="10"/>
+        <v>323AmbitieTaken</v>
+      </c>
+      <c r="R41" t="s">
+        <v>88</v>
+      </c>
+      <c r="S41" t="str">
+        <f t="shared" si="11"/>
+        <v>323AmbitieProgramma</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="13"/>
+        <v>323AmbitieBeleid</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="15"/>
+        <v>323AmbitieOrganisatie</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y41" t="str">
+        <f t="shared" si="17"/>
+        <v>323AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -3807,26 +6292,84 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H42" t="str">
+        <v>332positieTaken</v>
+      </c>
+      <c r="H42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I42" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I42" t="str">
+        <v>332positieProgramma</v>
+      </c>
+      <c r="J42" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J42" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K42" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K42" t="str">
+        <v>332positieBeleid</v>
+      </c>
+      <c r="L42" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M42" t="str">
+        <f t="shared" si="6"/>
+        <v>332positieOrganisatie</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" si="8"/>
+        <v>332positieBekwaamheid</v>
+      </c>
+      <c r="P42" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="10"/>
+        <v>332AmbitieTaken</v>
+      </c>
+      <c r="R42" t="s">
+        <v>88</v>
+      </c>
+      <c r="S42" t="str">
+        <f t="shared" si="11"/>
+        <v>332AmbitieProgramma</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="13"/>
+        <v>332AmbitieBeleid</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="15"/>
+        <v>332AmbitieOrganisatie</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y42" t="str">
+        <f t="shared" si="17"/>
+        <v>332AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -3848,26 +6391,84 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H43" t="str">
+        <v>341positieTaken</v>
+      </c>
+      <c r="H43" t="s">
+        <v>88</v>
+      </c>
+      <c r="I43" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I43" t="str">
+        <v>341positieProgramma</v>
+      </c>
+      <c r="J43" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J43" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K43" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K43" t="str">
+        <v>341positieBeleid</v>
+      </c>
+      <c r="L43" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M43" t="str">
+        <f t="shared" si="6"/>
+        <v>341positieOrganisatie</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="8"/>
+        <v>341positieBekwaamheid</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="10"/>
+        <v>341AmbitieTaken</v>
+      </c>
+      <c r="R43" t="s">
+        <v>88</v>
+      </c>
+      <c r="S43" t="str">
+        <f t="shared" si="11"/>
+        <v>341AmbitieProgramma</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="13"/>
+        <v>341AmbitieBeleid</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="15"/>
+        <v>341AmbitieOrganisatie</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y43" t="str">
+        <f t="shared" si="17"/>
+        <v>341AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>4</v>
       </c>
@@ -3889,26 +6490,84 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H44" t="str">
+        <v>413positieTaken</v>
+      </c>
+      <c r="H44" t="s">
+        <v>88</v>
+      </c>
+      <c r="I44" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I44" t="str">
+        <v>413positieProgramma</v>
+      </c>
+      <c r="J44" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J44" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K44" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K44" t="str">
+        <v>413positieBeleid</v>
+      </c>
+      <c r="L44" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M44" t="str">
+        <f t="shared" si="6"/>
+        <v>413positieOrganisatie</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="8"/>
+        <v>413positieBekwaamheid</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="10"/>
+        <v>413AmbitieTaken</v>
+      </c>
+      <c r="R44" t="s">
+        <v>88</v>
+      </c>
+      <c r="S44" t="str">
+        <f t="shared" si="11"/>
+        <v>413AmbitieProgramma</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="13"/>
+        <v>413AmbitieBeleid</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="15"/>
+        <v>413AmbitieOrganisatie</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y44" t="str">
+        <f t="shared" si="17"/>
+        <v>413AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>4</v>
       </c>
@@ -3930,26 +6589,84 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H45" t="str">
+        <v>422positieTaken</v>
+      </c>
+      <c r="H45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I45" t="str">
+        <v>422positieProgramma</v>
+      </c>
+      <c r="J45" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J45" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K45" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K45" t="str">
+        <v>422positieBeleid</v>
+      </c>
+      <c r="L45" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M45" t="str">
+        <f t="shared" si="6"/>
+        <v>422positieOrganisatie</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="8"/>
+        <v>422positieBekwaamheid</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="10"/>
+        <v>422AmbitieTaken</v>
+      </c>
+      <c r="R45" t="s">
+        <v>88</v>
+      </c>
+      <c r="S45" t="str">
+        <f t="shared" si="11"/>
+        <v>422AmbitieProgramma</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="13"/>
+        <v>422AmbitieBeleid</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="15"/>
+        <v>422AmbitieOrganisatie</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y45" t="str">
+        <f t="shared" si="17"/>
+        <v>422AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>4</v>
       </c>
@@ -3971,26 +6688,84 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H46" t="str">
+        <v>431positieTaken</v>
+      </c>
+      <c r="H46" t="s">
+        <v>88</v>
+      </c>
+      <c r="I46" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I46" t="str">
+        <v>431positieProgramma</v>
+      </c>
+      <c r="J46" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J46" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K46" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K46" t="str">
+        <v>431positieBeleid</v>
+      </c>
+      <c r="L46" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M46" t="str">
+        <f t="shared" si="6"/>
+        <v>431positieOrganisatie</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="8"/>
+        <v>431positieBekwaamheid</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="10"/>
+        <v>431AmbitieTaken</v>
+      </c>
+      <c r="R46" t="s">
+        <v>88</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" si="11"/>
+        <v>431AmbitieProgramma</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="13"/>
+        <v>431AmbitieBeleid</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="15"/>
+        <v>431AmbitieOrganisatie</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" si="17"/>
+        <v>431AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>2</v>
       </c>
@@ -4012,26 +6787,84 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H47" t="str">
+        <v>234positieTaken</v>
+      </c>
+      <c r="H47" t="s">
+        <v>88</v>
+      </c>
+      <c r="I47" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I47" t="str">
+        <v>234positieProgramma</v>
+      </c>
+      <c r="J47" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J47" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K47" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K47" t="str">
+        <v>234positieBeleid</v>
+      </c>
+      <c r="L47" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M47" t="str">
+        <f t="shared" si="6"/>
+        <v>234positieOrganisatie</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="8"/>
+        <v>234positieBekwaamheid</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="10"/>
+        <v>234AmbitieTaken</v>
+      </c>
+      <c r="R47" t="s">
+        <v>88</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" si="11"/>
+        <v>234AmbitieProgramma</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="13"/>
+        <v>234AmbitieBeleid</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="15"/>
+        <v>234AmbitieOrganisatie</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" si="17"/>
+        <v>234AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>2</v>
       </c>
@@ -4053,26 +6886,84 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H48" t="str">
+        <v>243positieTaken</v>
+      </c>
+      <c r="H48" t="s">
+        <v>88</v>
+      </c>
+      <c r="I48" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I48" t="str">
+        <v>243positieProgramma</v>
+      </c>
+      <c r="J48" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J48" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K48" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K48" t="str">
+        <v>243positieBeleid</v>
+      </c>
+      <c r="L48" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M48" t="str">
+        <f t="shared" si="6"/>
+        <v>243positieOrganisatie</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="8"/>
+        <v>243positieBekwaamheid</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="10"/>
+        <v>243AmbitieTaken</v>
+      </c>
+      <c r="R48" t="s">
+        <v>88</v>
+      </c>
+      <c r="S48" t="str">
+        <f t="shared" si="11"/>
+        <v>243AmbitieProgramma</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="13"/>
+        <v>243AmbitieBeleid</v>
+      </c>
+      <c r="V48" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="15"/>
+        <v>243AmbitieOrganisatie</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y48" t="str">
+        <f t="shared" si="17"/>
+        <v>243AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -4094,26 +6985,84 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H49" t="str">
+        <v>324positieTaken</v>
+      </c>
+      <c r="H49" t="s">
+        <v>88</v>
+      </c>
+      <c r="I49" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I49" t="str">
+        <v>324positieProgramma</v>
+      </c>
+      <c r="J49" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J49" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K49" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K49" t="str">
+        <v>324positieBeleid</v>
+      </c>
+      <c r="L49" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M49" t="str">
+        <f t="shared" si="6"/>
+        <v>324positieOrganisatie</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="8"/>
+        <v>324positieBekwaamheid</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="10"/>
+        <v>324AmbitieTaken</v>
+      </c>
+      <c r="R49" t="s">
+        <v>88</v>
+      </c>
+      <c r="S49" t="str">
+        <f t="shared" si="11"/>
+        <v>324AmbitieProgramma</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="13"/>
+        <v>324AmbitieBeleid</v>
+      </c>
+      <c r="V49" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="15"/>
+        <v>324AmbitieOrganisatie</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y49" t="str">
+        <f t="shared" si="17"/>
+        <v>324AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -4135,26 +7084,84 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H50" t="str">
+        <v>342positieTaken</v>
+      </c>
+      <c r="H50" t="s">
+        <v>88</v>
+      </c>
+      <c r="I50" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I50" t="str">
+        <v>342positieProgramma</v>
+      </c>
+      <c r="J50" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J50" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K50" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K50" t="str">
+        <v>342positieBeleid</v>
+      </c>
+      <c r="L50" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M50" t="str">
+        <f t="shared" si="6"/>
+        <v>342positieOrganisatie</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="8"/>
+        <v>342positieBekwaamheid</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="10"/>
+        <v>342AmbitieTaken</v>
+      </c>
+      <c r="R50" t="s">
+        <v>88</v>
+      </c>
+      <c r="S50" t="str">
+        <f t="shared" si="11"/>
+        <v>342AmbitieProgramma</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="13"/>
+        <v>342AmbitieBeleid</v>
+      </c>
+      <c r="V50" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="15"/>
+        <v>342AmbitieOrganisatie</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y50" t="str">
+        <f t="shared" si="17"/>
+        <v>342AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>4</v>
       </c>
@@ -4176,26 +7183,84 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H51" t="str">
+        <v>414positieTaken</v>
+      </c>
+      <c r="H51" t="s">
+        <v>88</v>
+      </c>
+      <c r="I51" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I51" t="str">
+        <v>414positieProgramma</v>
+      </c>
+      <c r="J51" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J51" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K51" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K51" t="str">
+        <v>414positieBeleid</v>
+      </c>
+      <c r="L51" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M51" t="str">
+        <f t="shared" si="6"/>
+        <v>414positieOrganisatie</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="8"/>
+        <v>414positieBekwaamheid</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="10"/>
+        <v>414AmbitieTaken</v>
+      </c>
+      <c r="R51" t="s">
+        <v>88</v>
+      </c>
+      <c r="S51" t="str">
+        <f t="shared" si="11"/>
+        <v>414AmbitieProgramma</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="13"/>
+        <v>414AmbitieBeleid</v>
+      </c>
+      <c r="V51" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="15"/>
+        <v>414AmbitieOrganisatie</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y51" t="str">
+        <f t="shared" si="17"/>
+        <v>414AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>4</v>
       </c>
@@ -4217,26 +7282,84 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H52" t="str">
+        <v>423positieTaken</v>
+      </c>
+      <c r="H52" t="s">
+        <v>88</v>
+      </c>
+      <c r="I52" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I52" t="str">
+        <v>423positieProgramma</v>
+      </c>
+      <c r="J52" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J52" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K52" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K52" t="str">
+        <v>423positieBeleid</v>
+      </c>
+      <c r="L52" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M52" t="str">
+        <f t="shared" si="6"/>
+        <v>423positieOrganisatie</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="8"/>
+        <v>423positieBekwaamheid</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="10"/>
+        <v>423AmbitieTaken</v>
+      </c>
+      <c r="R52" t="s">
+        <v>88</v>
+      </c>
+      <c r="S52" t="str">
+        <f t="shared" si="11"/>
+        <v>423AmbitieProgramma</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="13"/>
+        <v>423AmbitieBeleid</v>
+      </c>
+      <c r="V52" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="15"/>
+        <v>423AmbitieOrganisatie</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y52" t="str">
+        <f t="shared" si="17"/>
+        <v>423AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>4</v>
       </c>
@@ -4258,26 +7381,84 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H53" t="str">
+        <v>432positieTaken</v>
+      </c>
+      <c r="H53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I53" t="str">
+        <v>432positieProgramma</v>
+      </c>
+      <c r="J53" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J53" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K53" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K53" t="str">
+        <v>432positieBeleid</v>
+      </c>
+      <c r="L53" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M53" t="str">
+        <f t="shared" si="6"/>
+        <v>432positieOrganisatie</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="8"/>
+        <v>432positieBekwaamheid</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="10"/>
+        <v>432AmbitieTaken</v>
+      </c>
+      <c r="R53" t="s">
+        <v>88</v>
+      </c>
+      <c r="S53" t="str">
+        <f t="shared" si="11"/>
+        <v>432AmbitieProgramma</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="13"/>
+        <v>432AmbitieBeleid</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="15"/>
+        <v>432AmbitieOrganisatie</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y53" t="str">
+        <f t="shared" si="17"/>
+        <v>432AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -4299,26 +7480,84 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H54" t="str">
+        <v>441positieTaken</v>
+      </c>
+      <c r="H54" t="s">
+        <v>88</v>
+      </c>
+      <c r="I54" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I54" t="str">
+        <v>441positieProgramma</v>
+      </c>
+      <c r="J54" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J54" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K54" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K54" t="str">
+        <v>441positieBeleid</v>
+      </c>
+      <c r="L54" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M54" t="str">
+        <f t="shared" si="6"/>
+        <v>441positieOrganisatie</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="8"/>
+        <v>441positieBekwaamheid</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="10"/>
+        <v>441AmbitieTaken</v>
+      </c>
+      <c r="R54" t="s">
+        <v>88</v>
+      </c>
+      <c r="S54" t="str">
+        <f t="shared" si="11"/>
+        <v>441AmbitieProgramma</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="13"/>
+        <v>441AmbitieBeleid</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="15"/>
+        <v>441AmbitieOrganisatie</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y54" t="str">
+        <f t="shared" si="17"/>
+        <v>441AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -4340,26 +7579,84 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H55" t="str">
+        <v>244positieTaken</v>
+      </c>
+      <c r="H55" t="s">
+        <v>88</v>
+      </c>
+      <c r="I55" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I55" t="str">
+        <v>244positieProgramma</v>
+      </c>
+      <c r="J55" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J55" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K55" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K55" t="str">
+        <v>244positieBeleid</v>
+      </c>
+      <c r="L55" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M55" t="str">
+        <f t="shared" si="6"/>
+        <v>244positieOrganisatie</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="8"/>
+        <v>244positieBekwaamheid</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="10"/>
+        <v>244AmbitieTaken</v>
+      </c>
+      <c r="R55" t="s">
+        <v>88</v>
+      </c>
+      <c r="S55" t="str">
+        <f t="shared" si="11"/>
+        <v>244AmbitieProgramma</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="13"/>
+        <v>244AmbitieBeleid</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="15"/>
+        <v>244AmbitieOrganisatie</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y55" t="str">
+        <f t="shared" si="17"/>
+        <v>244AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>4</v>
       </c>
@@ -4381,26 +7678,84 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H56" t="str">
+        <v>424positieTaken</v>
+      </c>
+      <c r="H56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I56" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I56" t="str">
+        <v>424positieProgramma</v>
+      </c>
+      <c r="J56" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J56" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K56" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K56" t="str">
+        <v>424positieBeleid</v>
+      </c>
+      <c r="L56" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M56" t="str">
+        <f t="shared" si="6"/>
+        <v>424positieOrganisatie</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="8"/>
+        <v>424positieBekwaamheid</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="10"/>
+        <v>424AmbitieTaken</v>
+      </c>
+      <c r="R56" t="s">
+        <v>88</v>
+      </c>
+      <c r="S56" t="str">
+        <f t="shared" si="11"/>
+        <v>424AmbitieProgramma</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="13"/>
+        <v>424AmbitieBeleid</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="15"/>
+        <v>424AmbitieOrganisatie</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y56" t="str">
+        <f t="shared" si="17"/>
+        <v>424AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>4</v>
       </c>
@@ -4422,26 +7777,84 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="H57" t="str">
+        <v>442positieTaken</v>
+      </c>
+      <c r="H57" t="s">
+        <v>88</v>
+      </c>
+      <c r="I57" t="str">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="I57" t="str">
+        <v>442positieProgramma</v>
+      </c>
+      <c r="J57" t="str">
         <f t="shared" si="3"/>
-        <v>32</v>
-      </c>
-      <c r="J57" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K57" t="str">
         <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="K57" t="str">
+        <v>442positieBeleid</v>
+      </c>
+      <c r="L57" t="str">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M57" t="str">
+        <f t="shared" si="6"/>
+        <v>442positieOrganisatie</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="8"/>
+        <v>442positieBekwaamheid</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="10"/>
+        <v>442AmbitieTaken</v>
+      </c>
+      <c r="R57" t="s">
+        <v>88</v>
+      </c>
+      <c r="S57" t="str">
+        <f t="shared" si="11"/>
+        <v>442AmbitieProgramma</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="13"/>
+        <v>442AmbitieBeleid</v>
+      </c>
+      <c r="V57" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="15"/>
+        <v>442AmbitieOrganisatie</v>
+      </c>
+      <c r="X57" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y57" t="str">
+        <f t="shared" si="17"/>
+        <v>442AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -4463,26 +7876,84 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H58" t="str">
+        <v>333positieTaken</v>
+      </c>
+      <c r="H58" t="s">
+        <v>88</v>
+      </c>
+      <c r="I58" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I58" t="str">
+        <v>333positieProgramma</v>
+      </c>
+      <c r="J58" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="J58" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K58" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="K58" t="str">
+        <v>333positieBeleid</v>
+      </c>
+      <c r="L58" t="str">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M58" t="str">
+        <f t="shared" si="6"/>
+        <v>333positieOrganisatie</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="8"/>
+        <v>333positieBekwaamheid</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="10"/>
+        <v>333AmbitieTaken</v>
+      </c>
+      <c r="R58" t="s">
+        <v>88</v>
+      </c>
+      <c r="S58" t="str">
+        <f t="shared" si="11"/>
+        <v>333AmbitieProgramma</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="13"/>
+        <v>333AmbitieBeleid</v>
+      </c>
+      <c r="V58" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="15"/>
+        <v>333AmbitieOrganisatie</v>
+      </c>
+      <c r="X58" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y58" t="str">
+        <f t="shared" si="17"/>
+        <v>333AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -4504,26 +7975,84 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H59" t="str">
+        <v>334positieTaken</v>
+      </c>
+      <c r="H59" t="s">
+        <v>88</v>
+      </c>
+      <c r="I59" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I59" t="str">
+        <v>334positieProgramma</v>
+      </c>
+      <c r="J59" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="J59" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K59" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="K59" t="str">
+        <v>334positieBeleid</v>
+      </c>
+      <c r="L59" t="str">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M59" t="str">
+        <f t="shared" si="6"/>
+        <v>334positieOrganisatie</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="8"/>
+        <v>334positieBekwaamheid</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="10"/>
+        <v>334AmbitieTaken</v>
+      </c>
+      <c r="R59" t="s">
+        <v>88</v>
+      </c>
+      <c r="S59" t="str">
+        <f t="shared" si="11"/>
+        <v>334AmbitieProgramma</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="13"/>
+        <v>334AmbitieBeleid</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="15"/>
+        <v>334AmbitieOrganisatie</v>
+      </c>
+      <c r="X59" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y59" t="str">
+        <f t="shared" si="17"/>
+        <v>334AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -4545,26 +8074,84 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H60" t="str">
+        <v>343positieTaken</v>
+      </c>
+      <c r="H60" t="s">
+        <v>88</v>
+      </c>
+      <c r="I60" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I60" t="str">
+        <v>343positieProgramma</v>
+      </c>
+      <c r="J60" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="J60" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K60" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="K60" t="str">
+        <v>343positieBeleid</v>
+      </c>
+      <c r="L60" t="str">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M60" t="str">
+        <f t="shared" si="6"/>
+        <v>343positieOrganisatie</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O60" t="str">
+        <f t="shared" si="8"/>
+        <v>343positieBekwaamheid</v>
+      </c>
+      <c r="P60" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="10"/>
+        <v>343AmbitieTaken</v>
+      </c>
+      <c r="R60" t="s">
+        <v>88</v>
+      </c>
+      <c r="S60" t="str">
+        <f t="shared" si="11"/>
+        <v>343AmbitieProgramma</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="13"/>
+        <v>343AmbitieBeleid</v>
+      </c>
+      <c r="V60" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="15"/>
+        <v>343AmbitieOrganisatie</v>
+      </c>
+      <c r="X60" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y60" t="str">
+        <f t="shared" si="17"/>
+        <v>343AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -4586,26 +8173,84 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H61" t="str">
+        <v>433positieTaken</v>
+      </c>
+      <c r="H61" t="s">
+        <v>88</v>
+      </c>
+      <c r="I61" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I61" t="str">
+        <v>433positieProgramma</v>
+      </c>
+      <c r="J61" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="J61" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K61" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="K61" t="str">
+        <v>433positieBeleid</v>
+      </c>
+      <c r="L61" t="str">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M61" t="str">
+        <f t="shared" si="6"/>
+        <v>433positieOrganisatie</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="8"/>
+        <v>433positieBekwaamheid</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="10"/>
+        <v>433AmbitieTaken</v>
+      </c>
+      <c r="R61" t="s">
+        <v>88</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" si="11"/>
+        <v>433AmbitieProgramma</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="13"/>
+        <v>433AmbitieBeleid</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="15"/>
+        <v>433AmbitieOrganisatie</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" si="17"/>
+        <v>433AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -4627,26 +8272,84 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H62" t="str">
+        <v>344positieTaken</v>
+      </c>
+      <c r="H62" t="s">
+        <v>88</v>
+      </c>
+      <c r="I62" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I62" t="str">
+        <v>344positieProgramma</v>
+      </c>
+      <c r="J62" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="J62" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K62" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="K62" t="str">
+        <v>344positieBeleid</v>
+      </c>
+      <c r="L62" t="str">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M62" t="str">
+        <f t="shared" si="6"/>
+        <v>344positieOrganisatie</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="8"/>
+        <v>344positieBekwaamheid</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="10"/>
+        <v>344AmbitieTaken</v>
+      </c>
+      <c r="R62" t="s">
+        <v>88</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="11"/>
+        <v>344AmbitieProgramma</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="13"/>
+        <v>344AmbitieBeleid</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="15"/>
+        <v>344AmbitieOrganisatie</v>
+      </c>
+      <c r="X62" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="17"/>
+        <v>344AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>4</v>
       </c>
@@ -4668,26 +8371,84 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H63" t="str">
+        <v>434positieTaken</v>
+      </c>
+      <c r="H63" t="s">
+        <v>88</v>
+      </c>
+      <c r="I63" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I63" t="str">
+        <v>434positieProgramma</v>
+      </c>
+      <c r="J63" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="J63" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K63" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="K63" t="str">
+        <v>434positieBeleid</v>
+      </c>
+      <c r="L63" t="str">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M63" t="str">
+        <f t="shared" si="6"/>
+        <v>434positieOrganisatie</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="8"/>
+        <v>434positieBekwaamheid</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="10"/>
+        <v>434AmbitieTaken</v>
+      </c>
+      <c r="R63" t="s">
+        <v>88</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="11"/>
+        <v>434AmbitieProgramma</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="13"/>
+        <v>434AmbitieBeleid</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="15"/>
+        <v>434AmbitieOrganisatie</v>
+      </c>
+      <c r="X63" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y63" t="str">
+        <f t="shared" si="17"/>
+        <v>434AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4</v>
       </c>
@@ -4709,26 +8470,84 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="H64" t="str">
+        <v>443positieTaken</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" t="str">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="I64" t="str">
+        <v>443positieProgramma</v>
+      </c>
+      <c r="J64" t="str">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="J64" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K64" t="str">
         <f t="shared" si="4"/>
-        <v>43</v>
-      </c>
-      <c r="K64" t="str">
+        <v>443positieBeleid</v>
+      </c>
+      <c r="L64" t="str">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M64" t="str">
+        <f t="shared" si="6"/>
+        <v>443positieOrganisatie</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="8"/>
+        <v>443positieBekwaamheid</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="10"/>
+        <v>443AmbitieTaken</v>
+      </c>
+      <c r="R64" t="s">
+        <v>88</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="11"/>
+        <v>443AmbitieProgramma</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="13"/>
+        <v>443AmbitieBeleid</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="15"/>
+        <v>443AmbitieOrganisatie</v>
+      </c>
+      <c r="X64" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="17"/>
+        <v>443AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>4</v>
       </c>
@@ -4750,23 +8569,302 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="H65" t="str">
+        <v>444positieTaken</v>
+      </c>
+      <c r="H65" t="s">
+        <v>88</v>
+      </c>
+      <c r="I65" t="str">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="I65" t="str">
+        <v>444positieProgramma</v>
+      </c>
+      <c r="J65" t="str">
         <f t="shared" si="3"/>
-        <v>34</v>
-      </c>
-      <c r="J65" t="str">
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="K65" t="str">
         <f t="shared" si="4"/>
-        <v>44</v>
-      </c>
-      <c r="K65" t="str">
+        <v>444positieBeleid</v>
+      </c>
+      <c r="L65" t="str">
         <f t="shared" si="5"/>
-        <v>54</v>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="M65" t="str">
+        <f t="shared" si="6"/>
+        <v>444positieOrganisatie</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="7"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="8"/>
+        <v>444positieBekwaamheid</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="9"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="10"/>
+        <v>444AmbitieTaken</v>
+      </c>
+      <c r="R65" t="s">
+        <v>88</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="11"/>
+        <v>444AmbitieProgramma</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="12"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="13"/>
+        <v>444AmbitieBeleid</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="14"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="15"/>
+        <v>444AmbitieOrganisatie</v>
+      </c>
+      <c r="X65" t="str">
+        <f t="shared" si="16"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+      <c r="Y65" t="str">
+        <f t="shared" si="17"/>
+        <v>444AmbitieBekwaamheid</v>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="18"/>
+        <v>Lorem Ipsum is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book. It has survived not only five centuries, but also the leap into electronic typesetting, remaining essentially unchanged. It was popularised in the 1960s with the release of Letraset sheets containing Lorem Ipsum passages, and more recently with desktop publishing software like Aldus PageMaker including versions of Lorem Ipsum.</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CD987E-7204-4841-A14E-5A403B79060F}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView zoomScale="233" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="74.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3830F1BF-D603-0243-8251-1D5C4AC069E6}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView zoomScale="248" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A69584-DCFE-1841-BC21-B6CE8907AAA1}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView zoomScale="179" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
